--- a/data/trans_dic/P18_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,26; 54,47</t>
+          <t>28,17; 71,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 16,14</t>
+          <t>1,96; 19,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 43,46</t>
+          <t>10,51; 66,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 18,57</t>
+          <t>4,09; 26,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,89; 52,98</t>
+          <t>0,0; 11,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 28,35</t>
+          <t>33,36; 59,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,61; 26,1</t>
+          <t>13,63; 39,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 22,8</t>
+          <t>12,32; 36,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,29; 49,6</t>
+          <t>10,37; 33,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 20,74</t>
+          <t>14,13; 41,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 28,4</t>
+          <t>34,89; 59,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 17,84</t>
+          <t>9,78; 26,69</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,39; 48,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 25,77</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 26,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,66</t>
+          <t>15,06; 28,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 16,97</t>
+          <t>4,29; 13,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 17,25</t>
+          <t>6,26; 16,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 17,73</t>
+          <t>6,6; 17,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,91; 35,87</t>
+          <t>5,02; 14,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,05</t>
+          <t>20,75; 34,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,19; 21,08</t>
+          <t>6,84; 16,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 22,12</t>
+          <t>12,08; 23,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,77; 30,96</t>
+          <t>9,16; 18,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,94</t>
+          <t>3,69; 12,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,53</t>
+          <t>19,27; 29,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 17,45</t>
+          <t>6,69; 13,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 17,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 16,36</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 10,93</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,16; 31,02</t>
+          <t>15,81; 30,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,36</t>
+          <t>2,46; 11,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,78</t>
+          <t>2,67; 12,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,63</t>
+          <t>3,16; 14,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 23,58</t>
+          <t>1,35; 9,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,09</t>
+          <t>13,6; 25,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 14,72</t>
+          <t>1,73; 7,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,52</t>
+          <t>5,83; 14,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 25,4</t>
+          <t>3,03; 9,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,54</t>
+          <t>2,07; 9,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,88</t>
+          <t>16,32; 25,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,97</t>
+          <t>2,64; 7,87</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 11,94</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 10,13</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 7,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,05; 30,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 11,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 31,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 17,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 29,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 13,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25,78%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 32,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 10,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 20,58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 14,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 9,82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22,16; 30,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 13,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 18,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 14,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 13,82</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22,36; 29,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 10,76</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 17,9</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 13,45</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 10,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,41%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46094</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9775</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32717</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14629</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6784</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54268</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35521</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26560</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24045</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>56349</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>100362</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45296</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>59277</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>38674</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>63133</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27857; 70848</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2439; 23926</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10348; 65784</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4668; 30406</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19550</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39302; 70325</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18745; 53798</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14230; 42086</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12694; 40473</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29760; 87445</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>75601; 128544</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25618; 69882</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>35071; 102796</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21664; 60949</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>33400; 104452</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75977</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35024</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38040</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45865</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45466</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>103774</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49628</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65381</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49376</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34246</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>179751</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>84652</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>103421</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>95240</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>79711</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53903; 102411</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18293; 56083</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23573; 63592</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26157; 70982</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>25759; 72070</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>79481; 131895</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31613; 74143</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45512; 89922</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33988; 69483</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18161; 59239</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>142783; 215374</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>59480; 119308</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>78216; 134959</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>69985; 125489</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>54424; 109905</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>64836</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18646</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16724</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19381</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15466</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68421</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17358</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33750</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19508</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18980</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>133258</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>36005</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>50474</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>38890</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>34446</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45206; 87764</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8122; 38691</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7463; 34169</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8643; 38529</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4752; 34614</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48916; 92402</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7410; 31885</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20106; 50504</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9911; 32656</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8271; 38409</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>105324; 165317</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20061; 59715</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>33332; 74531</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24351; 60855</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19043; 56850</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>186908</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63445</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>87481</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>79875</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>67716</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>226463</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>102507</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>125692</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>92928</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>109575</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>413371</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>165952</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>213173</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>172804</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>177291</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>149681; 237914</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>42208; 93301</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>57208; 155185</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55270; 110280</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>41645; 102534</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>190632; 262750</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>74486; 138680</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>97124; 157520</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>68346; 120270</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>75693; 152407</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>358417; 469952</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>128566; 205590</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>170233; 284760</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>138794; 215894</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>134540; 230446</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
